--- a/Doc/SampleAnalysis.xlsx
+++ b/Doc/SampleAnalysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8-GitHub\TSEA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8-GitHub\TSEA\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1607,48 +1607,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"/&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;xs:element name="Reminder" type="</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xs:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>unsignedInt</t>
     </r>
     <r>
@@ -2471,6 +2429,48 @@
   </si>
   <si>
     <t>FileSplit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;xs:element name="Reminder" type="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xs:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"/&gt; @ExceptionsException class</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2706,8 +2706,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2727,14 +2733,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1">
       <alignment vertical="center"/>
@@ -3028,8 +3028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3042,28 +3042,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3116,29 +3116,29 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>121</v>
@@ -3148,42 +3148,42 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="E9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="10" spans="1:6" s="18" customFormat="1" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="18" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="18" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3199,15 +3199,15 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>107</v>
@@ -3217,31 +3217,31 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>109</v>
@@ -3275,16 +3275,16 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="24">
         <v>4</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -3295,21 +3295,21 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="366" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="8" t="s">
         <v>31</v>
       </c>
@@ -3321,9 +3321,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="E21" s="7" t="s">
         <v>113</v>
       </c>
@@ -3332,9 +3332,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="E22" s="12" t="s">
         <v>115</v>
       </c>
@@ -3439,13 +3439,13 @@
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="24">
         <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -3459,9 +3459,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="364.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="8" t="s">
         <v>51</v>
       </c>
@@ -3565,32 +3565,32 @@
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="24">
         <v>1</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="24" t="s">
         <v>79</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>71</v>
@@ -3621,13 +3621,13 @@
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="24">
         <v>2</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -3641,9 +3641,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="4" t="s">
         <v>18</v>
       </c>
@@ -3677,13 +3677,13 @@
         <v>6</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3735,13 +3735,13 @@
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="24">
         <v>2</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -3752,11 +3752,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
       <c r="D53" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>105</v>
@@ -3779,12 +3779,19 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="C18:C22"/>
@@ -3796,19 +3803,12 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
